--- a/va_facility_data_2025-02-20/Roseburg VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Roseburg%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Roseburg VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Roseburg%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Ra84b8dd3790e4a0bb9fc55071cee0259"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R7cc7cd0a7c014ef19e83347f2f006773"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9615fb675877455eaf165fdde52cd017"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R40822a0bb5664772b0ee8be016573cb0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rd35117f20a624d4b90e852681007b79d"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf58fc8939dc24073bf1ed6e65289ba35"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rd59bf654a6ed4037997f90a7eee273d4"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Ref1400eeb496493f952ca2e13b076f81"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf96a73f6871243068f5f0e1d19e5f817"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rd82fa684f78e40d794b47312d8922911"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R59ab66475c3d47c48d7495b7d66161da"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rba4a46bfae2640c28b18e886ad029a42"/>
   </x:sheets>
 </x:workbook>
 </file>
